--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H2">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I2">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J2">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N2">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q2">
-        <v>8.482991705793543</v>
+        <v>13.62999976793178</v>
       </c>
       <c r="R2">
-        <v>8.482991705793543</v>
+        <v>122.669997911386</v>
       </c>
       <c r="S2">
-        <v>0.001351146008411001</v>
+        <v>0.002009166242425625</v>
       </c>
       <c r="T2">
-        <v>0.001351146008411001</v>
+        <v>0.002009166242425625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H3">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I3">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J3">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N3">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q3">
-        <v>22.25140656811407</v>
+        <v>31.69222131592378</v>
       </c>
       <c r="R3">
-        <v>22.25140656811407</v>
+        <v>285.229991843314</v>
       </c>
       <c r="S3">
-        <v>0.003544138696434718</v>
+        <v>0.004671675884048672</v>
       </c>
       <c r="T3">
-        <v>0.003544138696434718</v>
+        <v>0.004671675884048672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H4">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I4">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J4">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N4">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q4">
-        <v>23.77159725163496</v>
+        <v>36.53778794214978</v>
       </c>
       <c r="R4">
-        <v>23.77159725163496</v>
+        <v>328.840091479348</v>
       </c>
       <c r="S4">
-        <v>0.00378627020443325</v>
+        <v>0.005385949475875357</v>
       </c>
       <c r="T4">
-        <v>0.00378627020443325</v>
+        <v>0.005385949475875357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H5">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I5">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J5">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N5">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q5">
-        <v>30.13660167215412</v>
+        <v>44.78635693450389</v>
       </c>
       <c r="R5">
-        <v>30.13660167215412</v>
+        <v>403.077212410535</v>
       </c>
       <c r="S5">
-        <v>0.004800069417561015</v>
+        <v>0.006601851651218635</v>
       </c>
       <c r="T5">
-        <v>0.004800069417561015</v>
+        <v>0.006601851651218635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H6">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I6">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J6">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N6">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q6">
-        <v>17.7638152223043</v>
+        <v>25.86024934608578</v>
       </c>
       <c r="R6">
-        <v>17.7638152223043</v>
+        <v>232.742244114772</v>
       </c>
       <c r="S6">
-        <v>0.002829368324782749</v>
+        <v>0.003811998598056393</v>
       </c>
       <c r="T6">
-        <v>0.002829368324782749</v>
+        <v>0.003811998598056393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H7">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I7">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J7">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N7">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q7">
-        <v>5.723683895782148</v>
+        <v>8.973562909584112</v>
       </c>
       <c r="R7">
-        <v>5.723683895782148</v>
+        <v>80.762066186257</v>
       </c>
       <c r="S7">
-        <v>0.0009116515631991815</v>
+        <v>0.001322771825325926</v>
       </c>
       <c r="T7">
-        <v>0.0009116515631991815</v>
+        <v>0.001322771825325926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H8">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I8">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J8">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N8">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q8">
-        <v>447.8037739549654</v>
+        <v>507.1123624408244</v>
       </c>
       <c r="R8">
-        <v>447.8037739549654</v>
+        <v>4564.01126196742</v>
       </c>
       <c r="S8">
-        <v>0.07132487013012281</v>
+        <v>0.0747522418987845</v>
       </c>
       <c r="T8">
-        <v>0.07132487013012281</v>
+        <v>0.07475224189878452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H9">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I9">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J9">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N9">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q9">
-        <v>1174.616713370425</v>
+        <v>1179.128209549064</v>
       </c>
       <c r="R9">
-        <v>1174.616713370425</v>
+        <v>10612.15388594158</v>
       </c>
       <c r="S9">
-        <v>0.1870895008183713</v>
+        <v>0.1738125190355181</v>
       </c>
       <c r="T9">
-        <v>0.1870895008183713</v>
+        <v>0.1738125190355181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H10">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I10">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J10">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N10">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q10">
-        <v>1254.865185704414</v>
+        <v>1359.410438531284</v>
       </c>
       <c r="R10">
-        <v>1254.865185704414</v>
+        <v>12234.69394678156</v>
       </c>
       <c r="S10">
-        <v>0.1998712418403622</v>
+        <v>0.2003874988409129</v>
       </c>
       <c r="T10">
-        <v>0.1998712418403622</v>
+        <v>0.2003874988409129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H11">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I11">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J11">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N11">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q11">
-        <v>1590.863746071024</v>
+        <v>1666.303423101272</v>
       </c>
       <c r="R11">
-        <v>1590.863746071024</v>
+        <v>14996.73080791145</v>
       </c>
       <c r="S11">
-        <v>0.2533881058685487</v>
+        <v>0.2456258726584959</v>
       </c>
       <c r="T11">
-        <v>0.2533881058685487</v>
+        <v>0.2456258726584959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H12">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I12">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J12">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N12">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q12">
-        <v>937.7238328494162</v>
+        <v>962.1461747972044</v>
       </c>
       <c r="R12">
-        <v>937.7238328494162</v>
+        <v>8659.315573174839</v>
       </c>
       <c r="S12">
-        <v>0.1493578984500293</v>
+        <v>0.1418277070869546</v>
       </c>
       <c r="T12">
-        <v>0.1493578984500293</v>
+        <v>0.1418277070869547</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H13">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I13">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J13">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N13">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q13">
-        <v>302.1442597552016</v>
+        <v>333.8668205480878</v>
       </c>
       <c r="R13">
-        <v>302.1442597552016</v>
+        <v>3004.80138493279</v>
       </c>
       <c r="S13">
-        <v>0.04812465044068414</v>
+        <v>0.04921452360471894</v>
       </c>
       <c r="T13">
-        <v>0.04812465044068414</v>
+        <v>0.04921452360471894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H14">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I14">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J14">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N14">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q14">
-        <v>7.673202555450716</v>
+        <v>9.46366385027911</v>
       </c>
       <c r="R14">
-        <v>7.673202555450716</v>
+        <v>85.172974652512</v>
       </c>
       <c r="S14">
-        <v>0.001222165170507671</v>
+        <v>0.001395016453513096</v>
       </c>
       <c r="T14">
-        <v>0.001222165170507671</v>
+        <v>0.001395016453513096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H15">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I15">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J15">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N15">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q15">
-        <v>20.12728005194411</v>
+        <v>22.00473472554311</v>
       </c>
       <c r="R15">
-        <v>20.12728005194411</v>
+        <v>198.042612529888</v>
       </c>
       <c r="S15">
-        <v>0.003205814062482416</v>
+        <v>0.003243666246283491</v>
       </c>
       <c r="T15">
-        <v>0.003205814062482416</v>
+        <v>0.003243666246283491</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H16">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I16">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J16">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N16">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q16">
-        <v>21.50235283783382</v>
+        <v>25.36913784333511</v>
       </c>
       <c r="R16">
-        <v>21.50235283783382</v>
+        <v>228.322240590016</v>
       </c>
       <c r="S16">
-        <v>0.003424831617888086</v>
+        <v>0.003739605005290889</v>
       </c>
       <c r="T16">
-        <v>0.003424831617888086</v>
+        <v>0.003739605005290889</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H17">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I17">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J17">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N17">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q17">
-        <v>27.25975186389051</v>
+        <v>31.09633413963555</v>
       </c>
       <c r="R17">
-        <v>27.25975186389051</v>
+        <v>279.86700725672</v>
       </c>
       <c r="S17">
-        <v>0.004341853228032192</v>
+        <v>0.004583837555414988</v>
       </c>
       <c r="T17">
-        <v>0.004341853228032192</v>
+        <v>0.004583837555414988</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H18">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I18">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J18">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N18">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q18">
-        <v>16.06807563718925</v>
+        <v>17.95544468544711</v>
       </c>
       <c r="R18">
-        <v>16.06807563718925</v>
+        <v>161.599002169024</v>
       </c>
       <c r="S18">
-        <v>0.002559275903241426</v>
+        <v>0.002646769915185042</v>
       </c>
       <c r="T18">
-        <v>0.002559275903241426</v>
+        <v>0.002646769915185042</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H19">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I19">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J19">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N19">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O19">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P19">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q19">
-        <v>5.177299167428489</v>
+        <v>6.230578456460444</v>
       </c>
       <c r="R19">
-        <v>5.177299167428489</v>
+        <v>56.07520610814399</v>
       </c>
       <c r="S19">
-        <v>0.0008246250081375298</v>
+        <v>0.0009184349316686901</v>
       </c>
       <c r="T19">
-        <v>0.0008246250081375298</v>
+        <v>0.00091843493166869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H20">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I20">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J20">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N20">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O20">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P20">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q20">
-        <v>28.58877168593784</v>
+        <v>5.761478495359777</v>
       </c>
       <c r="R20">
-        <v>28.58877168593784</v>
+        <v>51.853306458238</v>
       </c>
       <c r="S20">
-        <v>0.004553535602592567</v>
+        <v>0.0008492860085422114</v>
       </c>
       <c r="T20">
-        <v>0.004553535602592567</v>
+        <v>0.0008492860085422115</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H21">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I21">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J21">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N21">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O21">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P21">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q21">
-        <v>74.99009832018727</v>
+        <v>13.39648236909578</v>
       </c>
       <c r="R21">
-        <v>74.99009832018727</v>
+        <v>120.568341321862</v>
       </c>
       <c r="S21">
-        <v>0.01194420265040107</v>
+        <v>0.001974743991306869</v>
       </c>
       <c r="T21">
-        <v>0.01194420265040107</v>
+        <v>0.001974743991306869</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H22">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I22">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J22">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N22">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O22">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P22">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q22">
-        <v>80.11333619163145</v>
+        <v>15.44473096705378</v>
       </c>
       <c r="R22">
-        <v>80.11333619163145</v>
+        <v>139.002578703484</v>
       </c>
       <c r="S22">
-        <v>0.01276021693406638</v>
+        <v>0.002276671504819753</v>
       </c>
       <c r="T22">
-        <v>0.01276021693406638</v>
+        <v>0.002276671504819753</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H23">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I23">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J23">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N23">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O23">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P23">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q23">
-        <v>101.5642186714447</v>
+        <v>18.93144803793389</v>
       </c>
       <c r="R23">
-        <v>101.5642186714447</v>
+        <v>170.383032341405</v>
       </c>
       <c r="S23">
-        <v>0.01617685050447276</v>
+        <v>0.002790640276278102</v>
       </c>
       <c r="T23">
-        <v>0.01617685050447276</v>
+        <v>0.002790640276278102</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H24">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I24">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J24">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N24">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O24">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P24">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q24">
-        <v>59.86633905521877</v>
+        <v>10.93127461694178</v>
       </c>
       <c r="R24">
-        <v>59.86633905521877</v>
+        <v>98.38147155247599</v>
       </c>
       <c r="S24">
-        <v>0.009535334685921602</v>
+        <v>0.001611353508509719</v>
       </c>
       <c r="T24">
-        <v>0.009535334685921602</v>
+        <v>0.001611353508509719</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1626096666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.487829</v>
+      </c>
+      <c r="I25">
+        <v>0.01006183847035486</v>
+      </c>
+      <c r="J25">
+        <v>0.01006183847035486</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.32687966666667</v>
+      </c>
+      <c r="N25">
+        <v>69.980639</v>
+      </c>
+      <c r="O25">
+        <v>0.05557067752037586</v>
+      </c>
+      <c r="P25">
+        <v>0.05557067752037585</v>
+      </c>
+      <c r="Q25">
+        <v>3.793176126970111</v>
+      </c>
+      <c r="R25">
+        <v>34.138585142731</v>
+      </c>
+      <c r="S25">
+        <v>0.0005591431808982016</v>
+      </c>
+      <c r="T25">
+        <v>0.0005591431808982016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.343811</v>
+      </c>
+      <c r="I26">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J26">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>35.43134066666666</v>
+      </c>
+      <c r="N26">
+        <v>106.294022</v>
+      </c>
+      <c r="O26">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="P26">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="Q26">
+        <v>4.060561555315777</v>
+      </c>
+      <c r="R26">
+        <v>36.545053997842</v>
+      </c>
+      <c r="S26">
+        <v>0.0005985578386748354</v>
+      </c>
+      <c r="T26">
+        <v>0.0005985578386748354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.343811</v>
+      </c>
+      <c r="I27">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J27">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>82.38429266666667</v>
+      </c>
+      <c r="N27">
+        <v>247.152878</v>
+      </c>
+      <c r="O27">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="P27">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="Q27">
+        <v>9.441542015339778</v>
+      </c>
+      <c r="R27">
+        <v>84.97387813805798</v>
+      </c>
+      <c r="S27">
+        <v>0.001391755525799422</v>
+      </c>
+      <c r="T27">
+        <v>0.001391755525799422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.343811</v>
+      </c>
+      <c r="I28">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J28">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>94.98039866666666</v>
+      </c>
+      <c r="N28">
+        <v>284.941196</v>
+      </c>
+      <c r="O28">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="P28">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="Q28">
+        <v>10.88510194866178</v>
+      </c>
+      <c r="R28">
+        <v>97.96591753795599</v>
+      </c>
+      <c r="S28">
+        <v>0.001604547303960167</v>
+      </c>
+      <c r="T28">
+        <v>0.001604547303960167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.343811</v>
+      </c>
+      <c r="I29">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J29">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>116.4226483333333</v>
+      </c>
+      <c r="N29">
+        <v>349.267945</v>
+      </c>
+      <c r="O29">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="P29">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="Q29">
+        <v>13.34246238204389</v>
+      </c>
+      <c r="R29">
+        <v>120.082161438395</v>
+      </c>
+      <c r="S29">
+        <v>0.001966781031934244</v>
+      </c>
+      <c r="T29">
+        <v>0.001966781031934245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.343811</v>
+      </c>
+      <c r="I30">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J30">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>67.22401466666666</v>
+      </c>
+      <c r="N30">
+        <v>201.672044</v>
+      </c>
+      <c r="O30">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="P30">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="Q30">
+        <v>7.704118568853777</v>
+      </c>
+      <c r="R30">
+        <v>69.33706711968399</v>
+      </c>
+      <c r="S30">
+        <v>0.001135646017588612</v>
+      </c>
+      <c r="T30">
+        <v>0.001135646017588612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.343811</v>
+      </c>
+      <c r="I31">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J31">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.32687966666667</v>
+      </c>
+      <c r="N31">
+        <v>69.980639</v>
+      </c>
+      <c r="O31">
+        <v>0.05557067752037586</v>
+      </c>
+      <c r="P31">
+        <v>0.05557067752037585</v>
+      </c>
+      <c r="Q31">
+        <v>2.673345941692111</v>
+      </c>
+      <c r="R31">
+        <v>24.060113475229</v>
+      </c>
+      <c r="S31">
+        <v>0.0003940716443011621</v>
+      </c>
+      <c r="T31">
+        <v>0.0003940716443011621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.919493</v>
+      </c>
+      <c r="H32">
+        <v>2.758479</v>
+      </c>
+      <c r="I32">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J32">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>35.43134066666666</v>
+      </c>
+      <c r="N32">
+        <v>106.294022</v>
+      </c>
+      <c r="O32">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="P32">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="Q32">
+        <v>32.57886972361533</v>
+      </c>
+      <c r="R32">
+        <v>293.209827512538</v>
+      </c>
+      <c r="S32">
+        <v>0.004802374642666818</v>
+      </c>
+      <c r="T32">
+        <v>0.004802374642666818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.919493</v>
+      </c>
+      <c r="H33">
+        <v>2.758479</v>
+      </c>
+      <c r="I33">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J33">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>82.38429266666667</v>
+      </c>
+      <c r="N33">
+        <v>247.152878</v>
+      </c>
+      <c r="O33">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="P33">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="Q33">
+        <v>75.75178041695133</v>
+      </c>
+      <c r="R33">
+        <v>681.766023752562</v>
+      </c>
+      <c r="S33">
+        <v>0.01116639197422905</v>
+      </c>
+      <c r="T33">
+        <v>0.01116639197422905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.919493</v>
+      </c>
+      <c r="H34">
+        <v>2.758479</v>
+      </c>
+      <c r="I34">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J34">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>94.98039866666666</v>
+      </c>
+      <c r="N34">
+        <v>284.941196</v>
+      </c>
+      <c r="O34">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="P34">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="Q34">
+        <v>87.33381171120932</v>
+      </c>
+      <c r="R34">
+        <v>786.0043054008839</v>
+      </c>
+      <c r="S34">
+        <v>0.01287367199560438</v>
+      </c>
+      <c r="T34">
+        <v>0.01287367199560438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.913074410896471</v>
-      </c>
-      <c r="H25">
-        <v>0.913074410896471</v>
-      </c>
-      <c r="I25">
-        <v>0.05804252324677036</v>
-      </c>
-      <c r="J25">
-        <v>0.05804252324677036</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>21.12593421067</v>
-      </c>
-      <c r="N25">
-        <v>21.12593421067</v>
-      </c>
-      <c r="O25">
-        <v>0.05293330988133684</v>
-      </c>
-      <c r="P25">
-        <v>0.05293330988133684</v>
-      </c>
-      <c r="Q25">
-        <v>19.28954993404511</v>
-      </c>
-      <c r="R25">
-        <v>19.28954993404511</v>
-      </c>
-      <c r="S25">
-        <v>0.003072382869315993</v>
-      </c>
-      <c r="T25">
-        <v>0.003072382869315993</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.919493</v>
+      </c>
+      <c r="H35">
+        <v>2.758479</v>
+      </c>
+      <c r="I35">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J35">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>116.4226483333333</v>
+      </c>
+      <c r="N35">
+        <v>349.267945</v>
+      </c>
+      <c r="O35">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="P35">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="Q35">
+        <v>107.0498101839617</v>
+      </c>
+      <c r="R35">
+        <v>963.448291655655</v>
+      </c>
+      <c r="S35">
+        <v>0.0157799610081962</v>
+      </c>
+      <c r="T35">
+        <v>0.0157799610081962</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.919493</v>
+      </c>
+      <c r="H36">
+        <v>2.758479</v>
+      </c>
+      <c r="I36">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J36">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>67.22401466666666</v>
+      </c>
+      <c r="N36">
+        <v>201.672044</v>
+      </c>
+      <c r="O36">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="P36">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="Q36">
+        <v>61.81201091789733</v>
+      </c>
+      <c r="R36">
+        <v>556.308098261076</v>
+      </c>
+      <c r="S36">
+        <v>0.009111563303535422</v>
+      </c>
+      <c r="T36">
+        <v>0.009111563303535422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.919493</v>
+      </c>
+      <c r="H37">
+        <v>2.758479</v>
+      </c>
+      <c r="I37">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J37">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.32687966666667</v>
+      </c>
+      <c r="N37">
+        <v>69.980639</v>
+      </c>
+      <c r="O37">
+        <v>0.05557067752037586</v>
+      </c>
+      <c r="P37">
+        <v>0.05557067752037585</v>
+      </c>
+      <c r="Q37">
+        <v>21.44890256534233</v>
+      </c>
+      <c r="R37">
+        <v>193.040123088081</v>
+      </c>
+      <c r="S37">
+        <v>0.003161732333462936</v>
+      </c>
+      <c r="T37">
+        <v>0.003161732333462935</v>
       </c>
     </row>
   </sheetData>
